--- a/매뉴얼레코드.xlsx
+++ b/매뉴얼레코드.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbstj\Desktop\KOSA\Final프로젝트\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ED8537-5F13-4C94-BDE5-C9B140DCAA3D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{73981FC8-988D-46C4-B9B9-BC21B75832A9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="6040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15760" windowHeight="4530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
+  <oleSize ref="A16:Q31"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
   <si>
     <t>위생관리</t>
   </si>
@@ -463,6 +463,10 @@
  insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '카운터');
  insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '테라스');
  insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '화장실');</t>
+  </si>
+  <si>
+    <t>미들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1395,4 +1399,384 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A8806-9519-42B2-8BC4-39A19318EE5A}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.4140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{E6DF14E8-3CC0-4E25-AF95-FE471687BBC3}">
+    <sortState ref="A2:C36">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>